--- a/data/topicos.xlsx
+++ b/data/topicos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\MAESTRIA\TESIS\programas\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\MAESTRIA\TESIS\uncertainty_mx\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3492811-8824-474A-937E-EE7A23855D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131B23A8-486E-4D4C-8CB4-2877C5D62F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{A18D75E4-0F99-4E10-B66B-3328ECCE06EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A18D75E4-0F99-4E10-B66B-3328ECCE06EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="150">
   <si>
     <t>[(0</t>
   </si>
@@ -397,81 +391,30 @@
     <t>terminos</t>
   </si>
   <si>
-    <t>'0.012*</t>
-  </si>
-  <si>
-    <t>0.012*</t>
-  </si>
-  <si>
-    <t>0.008*</t>
-  </si>
-  <si>
-    <t>0.007*</t>
-  </si>
-  <si>
-    <t>0.006*</t>
-  </si>
-  <si>
     <t>reducir</t>
   </si>
   <si>
-    <t>')</t>
-  </si>
-  <si>
-    <t>'0.025*</t>
-  </si>
-  <si>
     <t>venta</t>
   </si>
   <si>
     <t>industriar</t>
   </si>
   <si>
-    <t>0.005*</t>
-  </si>
-  <si>
     <t>pagar</t>
   </si>
   <si>
-    <t>'0.017*</t>
-  </si>
-  <si>
-    <t>0.013*</t>
-  </si>
-  <si>
-    <t>0.011*</t>
-  </si>
-  <si>
-    <t>0.010*</t>
-  </si>
-  <si>
     <t>riesgo</t>
   </si>
   <si>
-    <t>0.009*</t>
-  </si>
-  <si>
     <t>precio</t>
   </si>
   <si>
-    <t>'0.013*</t>
-  </si>
-  <si>
     <t>ley</t>
   </si>
   <si>
     <t>proponer</t>
   </si>
   <si>
-    <t>'0.020*</t>
-  </si>
-  <si>
-    <t>0.016*</t>
-  </si>
-  <si>
-    <t>0.014*</t>
-  </si>
-  <si>
     <t>brasil</t>
   </si>
   <si>
@@ -490,18 +433,12 @@
     <t>región</t>
   </si>
   <si>
-    <t>0.004*</t>
-  </si>
-  <si>
     <t>electoral</t>
   </si>
   <si>
     <t>candidato</t>
   </si>
   <si>
-    <t>'0.009*</t>
-  </si>
-  <si>
     <t>problema</t>
   </si>
   <si>
@@ -517,30 +454,15 @@
     <t>realidad</t>
   </si>
   <si>
-    <t>'0.041*</t>
-  </si>
-  <si>
-    <t>0.017*</t>
-  </si>
-  <si>
     <t>registrar</t>
   </si>
   <si>
-    <t>'0.027*</t>
-  </si>
-  <si>
     <t>europeo</t>
   </si>
   <si>
-    <t>0.019*</t>
-  </si>
-  <si>
     <t>europa</t>
   </si>
   <si>
-    <t>0.015*</t>
-  </si>
-  <si>
     <t>grecia</t>
   </si>
   <si>
@@ -554,27 +476,6 @@
   </si>
   <si>
     <t>unión_europea</t>
-  </si>
-  <si>
-    <t>')]</t>
-  </si>
-  <si>
-    <t>Política Monetaria</t>
-  </si>
-  <si>
-    <t>Política Fiscal</t>
-  </si>
-  <si>
-    <t>Política Comercial</t>
-  </si>
-  <si>
-    <t>Riesgo Político</t>
-  </si>
-  <si>
-    <t>topico</t>
-  </si>
-  <si>
-    <t>tokens característicos</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D469F929-F43C-484B-802C-8035834B6527}">
   <dimension ref="A2:AD55"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="Q31" sqref="P30:Q31"/>
     </sheetView>
   </sheetViews>
@@ -3159,2168 +3060,691 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE78F64-AD2F-49F5-BA98-1B58FC728B4E}">
-  <dimension ref="A2:AE65"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="16">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="16">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16">
+        <v>3</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16">
+        <v>4</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="16">
+        <v>5</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="16">
+        <v>6</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16">
+        <v>7</v>
+      </c>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="16">
+        <v>8</v>
+      </c>
+      <c r="R1" s="17"/>
+      <c r="S1" s="16">
+        <v>9</v>
+      </c>
+      <c r="T1" s="17"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" t="s">
-        <v>125</v>
-      </c>
-      <c r="X3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="C11" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AE3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="G11" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U5" t="s">
-        <v>90</v>
-      </c>
-      <c r="V5" t="s">
-        <v>3</v>
-      </c>
-      <c r="W5" t="s">
-        <v>131</v>
-      </c>
-      <c r="X5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I11" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>136</v>
-      </c>
-      <c r="R7" t="s">
-        <v>137</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" t="s">
-        <v>3</v>
-      </c>
-      <c r="W7" t="s">
-        <v>138</v>
-      </c>
-      <c r="X7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>125</v>
-      </c>
-      <c r="R9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" t="s">
-        <v>125</v>
-      </c>
-      <c r="U9" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="K11" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AB9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" t="s">
-        <v>148</v>
-      </c>
-      <c r="S11" t="s">
-        <v>3</v>
-      </c>
-      <c r="T11" t="s">
-        <v>136</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="O11" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="V11" t="s">
-        <v>3</v>
-      </c>
-      <c r="W11" t="s">
-        <v>138</v>
-      </c>
-      <c r="X11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>131</v>
-      </c>
-      <c r="O13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>131</v>
-      </c>
-      <c r="R13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3</v>
-      </c>
-      <c r="T13" t="s">
-        <v>152</v>
-      </c>
-      <c r="U13" t="s">
-        <v>111</v>
-      </c>
-      <c r="V13" t="s">
-        <v>3</v>
-      </c>
-      <c r="W13" t="s">
-        <v>152</v>
-      </c>
-      <c r="X13" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>123</v>
-      </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>124</v>
-      </c>
-      <c r="O15" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>125</v>
-      </c>
-      <c r="R15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U15" t="s">
-        <v>157</v>
-      </c>
-      <c r="V15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W15" t="s">
-        <v>131</v>
-      </c>
-      <c r="X15" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>136</v>
-      </c>
-      <c r="R17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" t="s">
-        <v>136</v>
-      </c>
-      <c r="U17" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17" t="s">
-        <v>3</v>
-      </c>
-      <c r="W17" t="s">
-        <v>136</v>
-      </c>
-      <c r="X17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>135</v>
-      </c>
-      <c r="R19" t="s">
-        <v>107</v>
-      </c>
-      <c r="S19" t="s">
-        <v>3</v>
-      </c>
-      <c r="T19" t="s">
-        <v>136</v>
-      </c>
-      <c r="U19" t="s">
-        <v>7</v>
-      </c>
-      <c r="V19" t="s">
-        <v>3</v>
-      </c>
-      <c r="W19" t="s">
-        <v>138</v>
-      </c>
-      <c r="X19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O21" t="s">
-        <v>169</v>
-      </c>
-      <c r="P21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>135</v>
-      </c>
-      <c r="R21" t="s">
-        <v>170</v>
-      </c>
-      <c r="S21" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" t="s">
-        <v>135</v>
-      </c>
-      <c r="U21" t="s">
-        <v>171</v>
-      </c>
-      <c r="V21" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" t="s">
-        <v>138</v>
-      </c>
-      <c r="X21" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16">
-        <v>1</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16">
-        <v>2</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="16">
-        <v>3</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="16">
-        <v>4</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="16">
-        <v>5</v>
-      </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="16">
-        <v>6</v>
-      </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="16">
-        <v>7</v>
-      </c>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="16">
-        <v>8</v>
-      </c>
-      <c r="S24" s="17"/>
-      <c r="T24" s="16">
-        <v>9</v>
-      </c>
-      <c r="U24" s="17"/>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="U29" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="U31" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="7">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="U32" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T33" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="U33" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="11">
-        <v>0</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
-        <v>1</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="11">
-        <v>2</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="11">
-        <v>3</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="11">
-        <v>4</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="11">
-        <v>5</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="11">
-        <v>6</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="11">
-        <v>7</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="11">
-        <v>8</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="11">
-        <v>9</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="11">
-        <v>0</v>
-      </c>
-      <c r="C56" s="8" t="str">
-        <f>CONCATENATE(C44,", ",D44,", ",E44,", ",F44,", ",G44,", ",H44,", ",I44,", ",J44,", ",K44,", ",L44)</f>
-        <v>china, estadounidense, caer, inversionista, fed, global, crecimiento, aumentar, empresa, reducir</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="11">
-        <v>1</v>
-      </c>
-      <c r="C57" s="8" t="str">
-        <f t="shared" ref="C57:C65" si="0">CONCATENATE(C45,", ",D45,", ",E45,", ",F45,", ",G45,", ",H45,", ",I45,", ",J45,", ",K45,", ",L45)</f>
-        <v>empresa, millón_dólar, venta, compañía, inversión, industriar, director, pagar, producto, casar</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="11">
-        <v>2</v>
-      </c>
-      <c r="C58" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>inflación, financiero, banco, tasar, crecimiento, riesgo, tasar_interés, político, mexicano, precio</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="11">
-        <v>3</v>
-      </c>
-      <c r="C59" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>gobierno, político, público, reformar, desarrollar, mexicano, inversión, generar, ley, proponer</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="11">
-        <v>4</v>
-      </c>
-      <c r="C60" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>trump, comercial, brasil, comerciar, mexicano, argentina, américa_latina, tlc, estadounidense, región</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="11">
-        <v>5</v>
-      </c>
-      <c r="C61" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>político, presidente, partir, gobierno, elección, gobernar, social, electoral, candidato, nacional</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="11">
-        <v>6</v>
-      </c>
-      <c r="C62" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>crisis, político, mundo, problema, cambiar, casar, haber, resultar, pensar, realidad</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="11">
-        <v>7</v>
-      </c>
-      <c r="C63" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>crecimiento, trimestre, crecer, caer, sector, inversión, mesar, pib, registrar, esperar</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="11">
-        <v>8</v>
-      </c>
-      <c r="C64" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>dólar, caer, cerrar, punto, peso, semana, bolsa, bajo, pesar, alzar</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="11">
-        <v>9</v>
-      </c>
-      <c r="C65" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>europeo, europa, mundial, crisis, grecia, españa, petróleo, global, alemania, unión_europea</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
